--- a/Informe_viajes/Informe/cant_viajes.xlsx
+++ b/Informe_viajes/Informe/cant_viajes.xlsx
@@ -22,28 +22,28 @@
     <t>Corta distancia</t>
   </si>
   <si>
-    <t>%Cd</t>
+    <t>Larga distancia</t>
   </si>
   <si>
-    <t>Larga distancia</t>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>%Cd</t>
   </si>
   <si>
     <t>%Ld</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>%Total</t>
-  </si>
-  <si>
-    <t>Media_To</t>
   </si>
   <si>
     <t>Media_Cd</t>
   </si>
   <si>
     <t>Media_Ld</t>
+  </si>
+  <si>
+    <t>Media_To</t>
   </si>
 </sst>
 </file>
@@ -451,28 +451,28 @@
         <v>29</v>
       </c>
       <c r="C2">
+        <v>88</v>
+      </c>
+      <c r="D2">
+        <v>117</v>
+      </c>
+      <c r="E2">
         <v>24.78632478632479</v>
       </c>
-      <c r="D2">
-        <v>88</v>
-      </c>
-      <c r="E2">
+      <c r="F2">
         <v>75.21367521367522</v>
       </c>
-      <c r="F2">
-        <v>117</v>
-      </c>
       <c r="G2">
         <v>100</v>
       </c>
       <c r="H2">
-        <v>141.2297297297297</v>
+        <v>41.7972972972973</v>
       </c>
       <c r="I2">
-        <v>41.7972972972973</v>
+        <v>99.43243243243244</v>
       </c>
       <c r="J2">
-        <v>99.43243243243244</v>
+        <v>141.2297297297297</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -483,28 +483,28 @@
         <v>36</v>
       </c>
       <c r="C3">
+        <v>44</v>
+      </c>
+      <c r="D3">
+        <v>80</v>
+      </c>
+      <c r="E3">
         <v>45</v>
       </c>
-      <c r="D3">
-        <v>44</v>
-      </c>
-      <c r="E3">
+      <c r="F3">
         <v>55.00000000000001</v>
       </c>
-      <c r="F3">
-        <v>80</v>
-      </c>
       <c r="G3">
         <v>100</v>
       </c>
       <c r="H3">
-        <v>141.2297297297297</v>
+        <v>41.7972972972973</v>
       </c>
       <c r="I3">
-        <v>41.7972972972973</v>
+        <v>99.43243243243244</v>
       </c>
       <c r="J3">
-        <v>99.43243243243244</v>
+        <v>141.2297297297297</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -515,28 +515,28 @@
         <v>21</v>
       </c>
       <c r="C4">
+        <v>88</v>
+      </c>
+      <c r="D4">
+        <v>109</v>
+      </c>
+      <c r="E4">
         <v>19.26605504587156</v>
       </c>
-      <c r="D4">
-        <v>88</v>
-      </c>
-      <c r="E4">
+      <c r="F4">
         <v>80.73394495412845</v>
       </c>
-      <c r="F4">
-        <v>109</v>
-      </c>
       <c r="G4">
         <v>100</v>
       </c>
       <c r="H4">
-        <v>141.2297297297297</v>
+        <v>41.7972972972973</v>
       </c>
       <c r="I4">
-        <v>41.7972972972973</v>
+        <v>99.43243243243244</v>
       </c>
       <c r="J4">
-        <v>99.43243243243244</v>
+        <v>141.2297297297297</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -547,28 +547,28 @@
         <v>21</v>
       </c>
       <c r="C5">
+        <v>77</v>
+      </c>
+      <c r="D5">
+        <v>98</v>
+      </c>
+      <c r="E5">
         <v>21.42857142857143</v>
       </c>
-      <c r="D5">
-        <v>77</v>
-      </c>
-      <c r="E5">
+      <c r="F5">
         <v>78.57142857142857</v>
       </c>
-      <c r="F5">
-        <v>98</v>
-      </c>
       <c r="G5">
         <v>100</v>
       </c>
       <c r="H5">
-        <v>141.2297297297297</v>
+        <v>41.7972972972973</v>
       </c>
       <c r="I5">
-        <v>41.7972972972973</v>
+        <v>99.43243243243244</v>
       </c>
       <c r="J5">
-        <v>99.43243243243244</v>
+        <v>141.2297297297297</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -579,28 +579,28 @@
         <v>30</v>
       </c>
       <c r="C6">
+        <v>69</v>
+      </c>
+      <c r="D6">
+        <v>99</v>
+      </c>
+      <c r="E6">
         <v>30.3030303030303</v>
       </c>
-      <c r="D6">
-        <v>69</v>
-      </c>
-      <c r="E6">
+      <c r="F6">
         <v>69.6969696969697</v>
       </c>
-      <c r="F6">
-        <v>99</v>
-      </c>
       <c r="G6">
         <v>100</v>
       </c>
       <c r="H6">
-        <v>141.2297297297297</v>
+        <v>41.7972972972973</v>
       </c>
       <c r="I6">
-        <v>41.7972972972973</v>
+        <v>99.43243243243244</v>
       </c>
       <c r="J6">
-        <v>99.43243243243244</v>
+        <v>141.2297297297297</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -611,28 +611,28 @@
         <v>27</v>
       </c>
       <c r="C7">
+        <v>77</v>
+      </c>
+      <c r="D7">
+        <v>104</v>
+      </c>
+      <c r="E7">
         <v>25.96153846153846</v>
       </c>
-      <c r="D7">
-        <v>77</v>
-      </c>
-      <c r="E7">
+      <c r="F7">
         <v>74.03846153846155</v>
       </c>
-      <c r="F7">
-        <v>104</v>
-      </c>
       <c r="G7">
         <v>100</v>
       </c>
       <c r="H7">
-        <v>141.2297297297297</v>
+        <v>41.7972972972973</v>
       </c>
       <c r="I7">
-        <v>41.7972972972973</v>
+        <v>99.43243243243244</v>
       </c>
       <c r="J7">
-        <v>99.43243243243244</v>
+        <v>141.2297297297297</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -643,28 +643,28 @@
         <v>27</v>
       </c>
       <c r="C8">
+        <v>82</v>
+      </c>
+      <c r="D8">
+        <v>109</v>
+      </c>
+      <c r="E8">
         <v>24.77064220183486</v>
       </c>
-      <c r="D8">
-        <v>82</v>
-      </c>
-      <c r="E8">
+      <c r="F8">
         <v>75.22935779816514</v>
       </c>
-      <c r="F8">
-        <v>109</v>
-      </c>
       <c r="G8">
         <v>100</v>
       </c>
       <c r="H8">
-        <v>141.2297297297297</v>
+        <v>41.7972972972973</v>
       </c>
       <c r="I8">
-        <v>41.7972972972973</v>
+        <v>99.43243243243244</v>
       </c>
       <c r="J8">
-        <v>99.43243243243244</v>
+        <v>141.2297297297297</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -675,28 +675,28 @@
         <v>49</v>
       </c>
       <c r="C9">
+        <v>97</v>
+      </c>
+      <c r="D9">
+        <v>146</v>
+      </c>
+      <c r="E9">
         <v>33.56164383561644</v>
       </c>
-      <c r="D9">
-        <v>97</v>
-      </c>
-      <c r="E9">
+      <c r="F9">
         <v>66.43835616438356</v>
       </c>
-      <c r="F9">
-        <v>146</v>
-      </c>
       <c r="G9">
         <v>100</v>
       </c>
       <c r="H9">
-        <v>141.2297297297297</v>
+        <v>41.7972972972973</v>
       </c>
       <c r="I9">
-        <v>41.7972972972973</v>
+        <v>99.43243243243244</v>
       </c>
       <c r="J9">
-        <v>99.43243243243244</v>
+        <v>141.2297297297297</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -707,28 +707,28 @@
         <v>40</v>
       </c>
       <c r="C10">
+        <v>106</v>
+      </c>
+      <c r="D10">
+        <v>146</v>
+      </c>
+      <c r="E10">
         <v>27.3972602739726</v>
       </c>
-      <c r="D10">
-        <v>106</v>
-      </c>
-      <c r="E10">
+      <c r="F10">
         <v>72.60273972602739</v>
       </c>
-      <c r="F10">
-        <v>146</v>
-      </c>
       <c r="G10">
         <v>100</v>
       </c>
       <c r="H10">
-        <v>141.2297297297297</v>
+        <v>41.7972972972973</v>
       </c>
       <c r="I10">
-        <v>41.7972972972973</v>
+        <v>99.43243243243244</v>
       </c>
       <c r="J10">
-        <v>99.43243243243244</v>
+        <v>141.2297297297297</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -739,28 +739,28 @@
         <v>32</v>
       </c>
       <c r="C11">
+        <v>98</v>
+      </c>
+      <c r="D11">
+        <v>130</v>
+      </c>
+      <c r="E11">
         <v>24.61538461538462</v>
       </c>
-      <c r="D11">
-        <v>98</v>
-      </c>
-      <c r="E11">
+      <c r="F11">
         <v>75.38461538461539</v>
       </c>
-      <c r="F11">
-        <v>130</v>
-      </c>
       <c r="G11">
         <v>100</v>
       </c>
       <c r="H11">
-        <v>141.2297297297297</v>
+        <v>41.7972972972973</v>
       </c>
       <c r="I11">
-        <v>41.7972972972973</v>
+        <v>99.43243243243244</v>
       </c>
       <c r="J11">
-        <v>99.43243243243244</v>
+        <v>141.2297297297297</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -771,28 +771,28 @@
         <v>40</v>
       </c>
       <c r="C12">
+        <v>113</v>
+      </c>
+      <c r="D12">
+        <v>153</v>
+      </c>
+      <c r="E12">
         <v>26.14379084967321</v>
       </c>
-      <c r="D12">
-        <v>113</v>
-      </c>
-      <c r="E12">
+      <c r="F12">
         <v>73.85620915032681</v>
       </c>
-      <c r="F12">
-        <v>153</v>
-      </c>
       <c r="G12">
         <v>100</v>
       </c>
       <c r="H12">
-        <v>141.2297297297297</v>
+        <v>41.7972972972973</v>
       </c>
       <c r="I12">
-        <v>41.7972972972973</v>
+        <v>99.43243243243244</v>
       </c>
       <c r="J12">
-        <v>99.43243243243244</v>
+        <v>141.2297297297297</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -803,28 +803,28 @@
         <v>38</v>
       </c>
       <c r="C13">
+        <v>125</v>
+      </c>
+      <c r="D13">
+        <v>163</v>
+      </c>
+      <c r="E13">
         <v>23.31288343558282</v>
       </c>
-      <c r="D13">
-        <v>125</v>
-      </c>
-      <c r="E13">
+      <c r="F13">
         <v>76.68711656441718</v>
       </c>
-      <c r="F13">
-        <v>163</v>
-      </c>
       <c r="G13">
         <v>100</v>
       </c>
       <c r="H13">
-        <v>141.2297297297297</v>
+        <v>41.7972972972973</v>
       </c>
       <c r="I13">
-        <v>41.7972972972973</v>
+        <v>99.43243243243244</v>
       </c>
       <c r="J13">
-        <v>99.43243243243244</v>
+        <v>141.2297297297297</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -835,28 +835,28 @@
         <v>25</v>
       </c>
       <c r="C14">
+        <v>35</v>
+      </c>
+      <c r="D14">
+        <v>60</v>
+      </c>
+      <c r="E14">
         <v>41.66666666666667</v>
       </c>
-      <c r="D14">
-        <v>35</v>
-      </c>
-      <c r="E14">
+      <c r="F14">
         <v>58.33333333333334</v>
       </c>
-      <c r="F14">
-        <v>60</v>
-      </c>
       <c r="G14">
         <v>100</v>
       </c>
       <c r="H14">
-        <v>141.2297297297297</v>
+        <v>41.7972972972973</v>
       </c>
       <c r="I14">
-        <v>41.7972972972973</v>
+        <v>99.43243243243244</v>
       </c>
       <c r="J14">
-        <v>99.43243243243244</v>
+        <v>141.2297297297297</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -867,28 +867,28 @@
         <v>33</v>
       </c>
       <c r="C15">
+        <v>73</v>
+      </c>
+      <c r="D15">
+        <v>106</v>
+      </c>
+      <c r="E15">
         <v>31.13207547169811</v>
       </c>
-      <c r="D15">
-        <v>73</v>
-      </c>
-      <c r="E15">
+      <c r="F15">
         <v>68.86792452830188</v>
       </c>
-      <c r="F15">
-        <v>106</v>
-      </c>
       <c r="G15">
         <v>100</v>
       </c>
       <c r="H15">
-        <v>141.2297297297297</v>
+        <v>41.7972972972973</v>
       </c>
       <c r="I15">
-        <v>41.7972972972973</v>
+        <v>99.43243243243244</v>
       </c>
       <c r="J15">
-        <v>99.43243243243244</v>
+        <v>141.2297297297297</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -899,28 +899,28 @@
         <v>39</v>
       </c>
       <c r="C16">
+        <v>91</v>
+      </c>
+      <c r="D16">
+        <v>130</v>
+      </c>
+      <c r="E16">
         <v>30</v>
       </c>
-      <c r="D16">
-        <v>91</v>
-      </c>
-      <c r="E16">
+      <c r="F16">
         <v>70</v>
       </c>
-      <c r="F16">
-        <v>130</v>
-      </c>
       <c r="G16">
         <v>100</v>
       </c>
       <c r="H16">
-        <v>141.2297297297297</v>
+        <v>41.7972972972973</v>
       </c>
       <c r="I16">
-        <v>41.7972972972973</v>
+        <v>99.43243243243244</v>
       </c>
       <c r="J16">
-        <v>99.43243243243244</v>
+        <v>141.2297297297297</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -931,28 +931,28 @@
         <v>39</v>
       </c>
       <c r="C17">
+        <v>76</v>
+      </c>
+      <c r="D17">
+        <v>115</v>
+      </c>
+      <c r="E17">
         <v>33.91304347826087</v>
       </c>
-      <c r="D17">
-        <v>76</v>
-      </c>
-      <c r="E17">
+      <c r="F17">
         <v>66.08695652173913</v>
       </c>
-      <c r="F17">
-        <v>115</v>
-      </c>
       <c r="G17">
         <v>100</v>
       </c>
       <c r="H17">
-        <v>141.2297297297297</v>
+        <v>41.7972972972973</v>
       </c>
       <c r="I17">
-        <v>41.7972972972973</v>
+        <v>99.43243243243244</v>
       </c>
       <c r="J17">
-        <v>99.43243243243244</v>
+        <v>141.2297297297297</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -963,28 +963,28 @@
         <v>37</v>
       </c>
       <c r="C18">
+        <v>119</v>
+      </c>
+      <c r="D18">
+        <v>156</v>
+      </c>
+      <c r="E18">
         <v>23.71794871794872</v>
       </c>
-      <c r="D18">
-        <v>119</v>
-      </c>
-      <c r="E18">
+      <c r="F18">
         <v>76.28205128205127</v>
       </c>
-      <c r="F18">
-        <v>156</v>
-      </c>
       <c r="G18">
         <v>100</v>
       </c>
       <c r="H18">
-        <v>141.2297297297297</v>
+        <v>41.7972972972973</v>
       </c>
       <c r="I18">
-        <v>41.7972972972973</v>
+        <v>99.43243243243244</v>
       </c>
       <c r="J18">
-        <v>99.43243243243244</v>
+        <v>141.2297297297297</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -995,28 +995,28 @@
         <v>31</v>
       </c>
       <c r="C19">
+        <v>106</v>
+      </c>
+      <c r="D19">
+        <v>137</v>
+      </c>
+      <c r="E19">
         <v>22.62773722627737</v>
       </c>
-      <c r="D19">
-        <v>106</v>
-      </c>
-      <c r="E19">
+      <c r="F19">
         <v>77.37226277372264</v>
       </c>
-      <c r="F19">
-        <v>137</v>
-      </c>
       <c r="G19">
         <v>100</v>
       </c>
       <c r="H19">
-        <v>141.2297297297297</v>
+        <v>41.7972972972973</v>
       </c>
       <c r="I19">
-        <v>41.7972972972973</v>
+        <v>99.43243243243244</v>
       </c>
       <c r="J19">
-        <v>99.43243243243244</v>
+        <v>141.2297297297297</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1027,28 +1027,28 @@
         <v>45</v>
       </c>
       <c r="C20">
+        <v>97</v>
+      </c>
+      <c r="D20">
+        <v>142</v>
+      </c>
+      <c r="E20">
         <v>31.69014084507042</v>
       </c>
-      <c r="D20">
-        <v>97</v>
-      </c>
-      <c r="E20">
+      <c r="F20">
         <v>68.30985915492957</v>
       </c>
-      <c r="F20">
-        <v>142</v>
-      </c>
       <c r="G20">
         <v>100</v>
       </c>
       <c r="H20">
-        <v>141.2297297297297</v>
+        <v>41.7972972972973</v>
       </c>
       <c r="I20">
-        <v>41.7972972972973</v>
+        <v>99.43243243243244</v>
       </c>
       <c r="J20">
-        <v>99.43243243243244</v>
+        <v>141.2297297297297</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1059,28 +1059,28 @@
         <v>45</v>
       </c>
       <c r="C21">
+        <v>95</v>
+      </c>
+      <c r="D21">
+        <v>140</v>
+      </c>
+      <c r="E21">
         <v>32.14285714285715</v>
       </c>
-      <c r="D21">
-        <v>95</v>
-      </c>
-      <c r="E21">
+      <c r="F21">
         <v>67.85714285714286</v>
       </c>
-      <c r="F21">
-        <v>140</v>
-      </c>
       <c r="G21">
         <v>100</v>
       </c>
       <c r="H21">
-        <v>141.2297297297297</v>
+        <v>41.7972972972973</v>
       </c>
       <c r="I21">
-        <v>41.7972972972973</v>
+        <v>99.43243243243244</v>
       </c>
       <c r="J21">
-        <v>99.43243243243244</v>
+        <v>141.2297297297297</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1091,28 +1091,28 @@
         <v>45</v>
       </c>
       <c r="C22">
+        <v>127</v>
+      </c>
+      <c r="D22">
+        <v>172</v>
+      </c>
+      <c r="E22">
         <v>26.16279069767442</v>
       </c>
-      <c r="D22">
-        <v>127</v>
-      </c>
-      <c r="E22">
+      <c r="F22">
         <v>73.83720930232558</v>
       </c>
-      <c r="F22">
-        <v>172</v>
-      </c>
       <c r="G22">
         <v>100</v>
       </c>
       <c r="H22">
-        <v>141.2297297297297</v>
+        <v>41.7972972972973</v>
       </c>
       <c r="I22">
-        <v>41.7972972972973</v>
+        <v>99.43243243243244</v>
       </c>
       <c r="J22">
-        <v>99.43243243243244</v>
+        <v>141.2297297297297</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1123,28 +1123,28 @@
         <v>50</v>
       </c>
       <c r="C23">
+        <v>120</v>
+      </c>
+      <c r="D23">
+        <v>170</v>
+      </c>
+      <c r="E23">
         <v>29.41176470588236</v>
       </c>
-      <c r="D23">
-        <v>120</v>
-      </c>
-      <c r="E23">
+      <c r="F23">
         <v>70.58823529411765</v>
       </c>
-      <c r="F23">
-        <v>170</v>
-      </c>
       <c r="G23">
         <v>100</v>
       </c>
       <c r="H23">
-        <v>141.2297297297297</v>
+        <v>41.7972972972973</v>
       </c>
       <c r="I23">
-        <v>41.7972972972973</v>
+        <v>99.43243243243244</v>
       </c>
       <c r="J23">
-        <v>99.43243243243244</v>
+        <v>141.2297297297297</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1155,28 +1155,28 @@
         <v>46</v>
       </c>
       <c r="C24">
+        <v>133</v>
+      </c>
+      <c r="D24">
+        <v>179</v>
+      </c>
+      <c r="E24">
         <v>25.69832402234637</v>
       </c>
-      <c r="D24">
-        <v>133</v>
-      </c>
-      <c r="E24">
+      <c r="F24">
         <v>74.30167597765363</v>
       </c>
-      <c r="F24">
-        <v>179</v>
-      </c>
       <c r="G24">
         <v>100</v>
       </c>
       <c r="H24">
-        <v>141.2297297297297</v>
+        <v>41.7972972972973</v>
       </c>
       <c r="I24">
-        <v>41.7972972972973</v>
+        <v>99.43243243243244</v>
       </c>
       <c r="J24">
-        <v>99.43243243243244</v>
+        <v>141.2297297297297</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1187,28 +1187,28 @@
         <v>45</v>
       </c>
       <c r="C25">
+        <v>114</v>
+      </c>
+      <c r="D25">
+        <v>159</v>
+      </c>
+      <c r="E25">
         <v>28.30188679245283</v>
       </c>
-      <c r="D25">
-        <v>114</v>
-      </c>
-      <c r="E25">
+      <c r="F25">
         <v>71.69811320754717</v>
       </c>
-      <c r="F25">
-        <v>159</v>
-      </c>
       <c r="G25">
         <v>100</v>
       </c>
       <c r="H25">
-        <v>141.2297297297297</v>
+        <v>41.7972972972973</v>
       </c>
       <c r="I25">
-        <v>41.7972972972973</v>
+        <v>99.43243243243244</v>
       </c>
       <c r="J25">
-        <v>99.43243243243244</v>
+        <v>141.2297297297297</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1219,28 +1219,28 @@
         <v>47</v>
       </c>
       <c r="C26">
+        <v>99</v>
+      </c>
+      <c r="D26">
+        <v>146</v>
+      </c>
+      <c r="E26">
         <v>32.19178082191781</v>
       </c>
-      <c r="D26">
-        <v>99</v>
-      </c>
-      <c r="E26">
+      <c r="F26">
         <v>67.8082191780822</v>
       </c>
-      <c r="F26">
-        <v>146</v>
-      </c>
       <c r="G26">
         <v>100</v>
       </c>
       <c r="H26">
-        <v>141.2297297297297</v>
+        <v>41.7972972972973</v>
       </c>
       <c r="I26">
-        <v>41.7972972972973</v>
+        <v>99.43243243243244</v>
       </c>
       <c r="J26">
-        <v>99.43243243243244</v>
+        <v>141.2297297297297</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1251,28 +1251,28 @@
         <v>52</v>
       </c>
       <c r="C27">
+        <v>99</v>
+      </c>
+      <c r="D27">
+        <v>151</v>
+      </c>
+      <c r="E27">
         <v>34.43708609271523</v>
       </c>
-      <c r="D27">
-        <v>99</v>
-      </c>
-      <c r="E27">
+      <c r="F27">
         <v>65.56291390728477</v>
       </c>
-      <c r="F27">
-        <v>151</v>
-      </c>
       <c r="G27">
         <v>100</v>
       </c>
       <c r="H27">
-        <v>141.2297297297297</v>
+        <v>41.7972972972973</v>
       </c>
       <c r="I27">
-        <v>41.7972972972973</v>
+        <v>99.43243243243244</v>
       </c>
       <c r="J27">
-        <v>99.43243243243244</v>
+        <v>141.2297297297297</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1283,28 +1283,28 @@
         <v>44</v>
       </c>
       <c r="C28">
+        <v>124</v>
+      </c>
+      <c r="D28">
+        <v>168</v>
+      </c>
+      <c r="E28">
         <v>26.19047619047619</v>
       </c>
-      <c r="D28">
-        <v>124</v>
-      </c>
-      <c r="E28">
+      <c r="F28">
         <v>73.80952380952381</v>
       </c>
-      <c r="F28">
-        <v>168</v>
-      </c>
       <c r="G28">
         <v>100</v>
       </c>
       <c r="H28">
-        <v>141.2297297297297</v>
+        <v>41.7972972972973</v>
       </c>
       <c r="I28">
-        <v>41.7972972972973</v>
+        <v>99.43243243243244</v>
       </c>
       <c r="J28">
-        <v>99.43243243243244</v>
+        <v>141.2297297297297</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1315,28 +1315,28 @@
         <v>51</v>
       </c>
       <c r="C29">
+        <v>95</v>
+      </c>
+      <c r="D29">
+        <v>146</v>
+      </c>
+      <c r="E29">
         <v>34.93150684931507</v>
       </c>
-      <c r="D29">
-        <v>95</v>
-      </c>
-      <c r="E29">
+      <c r="F29">
         <v>65.06849315068493</v>
       </c>
-      <c r="F29">
-        <v>146</v>
-      </c>
       <c r="G29">
         <v>100</v>
       </c>
       <c r="H29">
-        <v>141.2297297297297</v>
+        <v>41.7972972972973</v>
       </c>
       <c r="I29">
-        <v>41.7972972972973</v>
+        <v>99.43243243243244</v>
       </c>
       <c r="J29">
-        <v>99.43243243243244</v>
+        <v>141.2297297297297</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1347,28 +1347,28 @@
         <v>38</v>
       </c>
       <c r="C30">
+        <v>89</v>
+      </c>
+      <c r="D30">
+        <v>127</v>
+      </c>
+      <c r="E30">
         <v>29.92125984251969</v>
       </c>
-      <c r="D30">
-        <v>89</v>
-      </c>
-      <c r="E30">
+      <c r="F30">
         <v>70.07874015748031</v>
       </c>
-      <c r="F30">
-        <v>127</v>
-      </c>
       <c r="G30">
         <v>100</v>
       </c>
       <c r="H30">
-        <v>141.2297297297297</v>
+        <v>41.7972972972973</v>
       </c>
       <c r="I30">
-        <v>41.7972972972973</v>
+        <v>99.43243243243244</v>
       </c>
       <c r="J30">
-        <v>99.43243243243244</v>
+        <v>141.2297297297297</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1379,28 +1379,28 @@
         <v>31</v>
       </c>
       <c r="C31">
+        <v>64</v>
+      </c>
+      <c r="D31">
+        <v>95</v>
+      </c>
+      <c r="E31">
         <v>32.63157894736842</v>
       </c>
-      <c r="D31">
-        <v>64</v>
-      </c>
-      <c r="E31">
+      <c r="F31">
         <v>67.36842105263158</v>
       </c>
-      <c r="F31">
-        <v>95</v>
-      </c>
       <c r="G31">
         <v>100</v>
       </c>
       <c r="H31">
-        <v>141.2297297297297</v>
+        <v>41.7972972972973</v>
       </c>
       <c r="I31">
-        <v>41.7972972972973</v>
+        <v>99.43243243243244</v>
       </c>
       <c r="J31">
-        <v>99.43243243243244</v>
+        <v>141.2297297297297</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1411,28 +1411,28 @@
         <v>47</v>
       </c>
       <c r="C32">
+        <v>71</v>
+      </c>
+      <c r="D32">
+        <v>118</v>
+      </c>
+      <c r="E32">
         <v>39.83050847457627</v>
       </c>
-      <c r="D32">
-        <v>71</v>
-      </c>
-      <c r="E32">
+      <c r="F32">
         <v>60.16949152542372</v>
       </c>
-      <c r="F32">
-        <v>118</v>
-      </c>
       <c r="G32">
         <v>100</v>
       </c>
       <c r="H32">
-        <v>141.2297297297297</v>
+        <v>41.7972972972973</v>
       </c>
       <c r="I32">
-        <v>41.7972972972973</v>
+        <v>99.43243243243244</v>
       </c>
       <c r="J32">
-        <v>99.43243243243244</v>
+        <v>141.2297297297297</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1443,28 +1443,28 @@
         <v>37</v>
       </c>
       <c r="C33">
+        <v>69</v>
+      </c>
+      <c r="D33">
+        <v>106</v>
+      </c>
+      <c r="E33">
         <v>34.90566037735849</v>
       </c>
-      <c r="D33">
-        <v>69</v>
-      </c>
-      <c r="E33">
+      <c r="F33">
         <v>65.09433962264151</v>
       </c>
-      <c r="F33">
-        <v>106</v>
-      </c>
       <c r="G33">
         <v>100</v>
       </c>
       <c r="H33">
-        <v>141.2297297297297</v>
+        <v>41.7972972972973</v>
       </c>
       <c r="I33">
-        <v>41.7972972972973</v>
+        <v>99.43243243243244</v>
       </c>
       <c r="J33">
-        <v>99.43243243243244</v>
+        <v>141.2297297297297</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1475,28 +1475,28 @@
         <v>36</v>
       </c>
       <c r="C34">
+        <v>92</v>
+      </c>
+      <c r="D34">
+        <v>128</v>
+      </c>
+      <c r="E34">
         <v>28.125</v>
       </c>
-      <c r="D34">
-        <v>92</v>
-      </c>
-      <c r="E34">
+      <c r="F34">
         <v>71.875</v>
       </c>
-      <c r="F34">
-        <v>128</v>
-      </c>
       <c r="G34">
         <v>100</v>
       </c>
       <c r="H34">
-        <v>141.2297297297297</v>
+        <v>41.7972972972973</v>
       </c>
       <c r="I34">
-        <v>41.7972972972973</v>
+        <v>99.43243243243244</v>
       </c>
       <c r="J34">
-        <v>99.43243243243244</v>
+        <v>141.2297297297297</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1507,28 +1507,28 @@
         <v>52</v>
       </c>
       <c r="C35">
+        <v>137</v>
+      </c>
+      <c r="D35">
+        <v>189</v>
+      </c>
+      <c r="E35">
         <v>27.51322751322751</v>
       </c>
-      <c r="D35">
-        <v>137</v>
-      </c>
-      <c r="E35">
+      <c r="F35">
         <v>72.48677248677249</v>
       </c>
-      <c r="F35">
-        <v>189</v>
-      </c>
       <c r="G35">
         <v>100</v>
       </c>
       <c r="H35">
-        <v>141.2297297297297</v>
+        <v>41.7972972972973</v>
       </c>
       <c r="I35">
-        <v>41.7972972972973</v>
+        <v>99.43243243243244</v>
       </c>
       <c r="J35">
-        <v>99.43243243243244</v>
+        <v>141.2297297297297</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1539,28 +1539,28 @@
         <v>44</v>
       </c>
       <c r="C36">
+        <v>111</v>
+      </c>
+      <c r="D36">
+        <v>155</v>
+      </c>
+      <c r="E36">
         <v>28.38709677419355</v>
       </c>
-      <c r="D36">
-        <v>111</v>
-      </c>
-      <c r="E36">
+      <c r="F36">
         <v>71.61290322580646</v>
       </c>
-      <c r="F36">
-        <v>155</v>
-      </c>
       <c r="G36">
         <v>100</v>
       </c>
       <c r="H36">
-        <v>141.2297297297297</v>
+        <v>41.7972972972973</v>
       </c>
       <c r="I36">
-        <v>41.7972972972973</v>
+        <v>99.43243243243244</v>
       </c>
       <c r="J36">
-        <v>99.43243243243244</v>
+        <v>141.2297297297297</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1571,28 +1571,28 @@
         <v>42</v>
       </c>
       <c r="C37">
+        <v>101</v>
+      </c>
+      <c r="D37">
+        <v>143</v>
+      </c>
+      <c r="E37">
         <v>29.37062937062937</v>
       </c>
-      <c r="D37">
-        <v>101</v>
-      </c>
-      <c r="E37">
+      <c r="F37">
         <v>70.62937062937063</v>
       </c>
-      <c r="F37">
-        <v>143</v>
-      </c>
       <c r="G37">
         <v>100</v>
       </c>
       <c r="H37">
-        <v>141.2297297297297</v>
+        <v>41.7972972972973</v>
       </c>
       <c r="I37">
-        <v>41.7972972972973</v>
+        <v>99.43243243243244</v>
       </c>
       <c r="J37">
-        <v>99.43243243243244</v>
+        <v>141.2297297297297</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1603,28 +1603,28 @@
         <v>31</v>
       </c>
       <c r="C38">
+        <v>104</v>
+      </c>
+      <c r="D38">
+        <v>135</v>
+      </c>
+      <c r="E38">
         <v>22.96296296296296</v>
       </c>
-      <c r="D38">
-        <v>104</v>
-      </c>
-      <c r="E38">
+      <c r="F38">
         <v>77.03703703703704</v>
       </c>
-      <c r="F38">
-        <v>135</v>
-      </c>
       <c r="G38">
         <v>100</v>
       </c>
       <c r="H38">
-        <v>141.2297297297297</v>
+        <v>41.7972972972973</v>
       </c>
       <c r="I38">
-        <v>41.7972972972973</v>
+        <v>99.43243243243244</v>
       </c>
       <c r="J38">
-        <v>99.43243243243244</v>
+        <v>141.2297297297297</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1635,28 +1635,28 @@
         <v>40</v>
       </c>
       <c r="C39">
+        <v>86</v>
+      </c>
+      <c r="D39">
+        <v>126</v>
+      </c>
+      <c r="E39">
         <v>31.74603174603174</v>
       </c>
-      <c r="D39">
-        <v>86</v>
-      </c>
-      <c r="E39">
+      <c r="F39">
         <v>68.25396825396825</v>
       </c>
-      <c r="F39">
-        <v>126</v>
-      </c>
       <c r="G39">
         <v>100</v>
       </c>
       <c r="H39">
-        <v>141.2297297297297</v>
+        <v>41.7972972972973</v>
       </c>
       <c r="I39">
-        <v>41.7972972972973</v>
+        <v>99.43243243243244</v>
       </c>
       <c r="J39">
-        <v>99.43243243243244</v>
+        <v>141.2297297297297</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1667,28 +1667,28 @@
         <v>36</v>
       </c>
       <c r="C40">
+        <v>103</v>
+      </c>
+      <c r="D40">
+        <v>139</v>
+      </c>
+      <c r="E40">
         <v>25.89928057553957</v>
       </c>
-      <c r="D40">
-        <v>103</v>
-      </c>
-      <c r="E40">
+      <c r="F40">
         <v>74.10071942446042</v>
       </c>
-      <c r="F40">
-        <v>139</v>
-      </c>
       <c r="G40">
         <v>100</v>
       </c>
       <c r="H40">
-        <v>141.2297297297297</v>
+        <v>41.7972972972973</v>
       </c>
       <c r="I40">
-        <v>41.7972972972973</v>
+        <v>99.43243243243244</v>
       </c>
       <c r="J40">
-        <v>99.43243243243244</v>
+        <v>141.2297297297297</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1699,28 +1699,28 @@
         <v>33</v>
       </c>
       <c r="C41">
+        <v>93</v>
+      </c>
+      <c r="D41">
+        <v>126</v>
+      </c>
+      <c r="E41">
         <v>26.19047619047619</v>
       </c>
-      <c r="D41">
-        <v>93</v>
-      </c>
-      <c r="E41">
+      <c r="F41">
         <v>73.80952380952381</v>
       </c>
-      <c r="F41">
-        <v>126</v>
-      </c>
       <c r="G41">
         <v>100</v>
       </c>
       <c r="H41">
-        <v>141.2297297297297</v>
+        <v>41.7972972972973</v>
       </c>
       <c r="I41">
-        <v>41.7972972972973</v>
+        <v>99.43243243243244</v>
       </c>
       <c r="J41">
-        <v>99.43243243243244</v>
+        <v>141.2297297297297</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1731,28 +1731,28 @@
         <v>34</v>
       </c>
       <c r="C42">
+        <v>97</v>
+      </c>
+      <c r="D42">
+        <v>131</v>
+      </c>
+      <c r="E42">
         <v>25.95419847328244</v>
       </c>
-      <c r="D42">
-        <v>97</v>
-      </c>
-      <c r="E42">
+      <c r="F42">
         <v>74.04580152671755</v>
       </c>
-      <c r="F42">
-        <v>131</v>
-      </c>
       <c r="G42">
         <v>100</v>
       </c>
       <c r="H42">
-        <v>141.2297297297297</v>
+        <v>41.7972972972973</v>
       </c>
       <c r="I42">
-        <v>41.7972972972973</v>
+        <v>99.43243243243244</v>
       </c>
       <c r="J42">
-        <v>99.43243243243244</v>
+        <v>141.2297297297297</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -1763,28 +1763,28 @@
         <v>41</v>
       </c>
       <c r="C43">
+        <v>69</v>
+      </c>
+      <c r="D43">
+        <v>110</v>
+      </c>
+      <c r="E43">
         <v>37.27272727272727</v>
       </c>
-      <c r="D43">
-        <v>69</v>
-      </c>
-      <c r="E43">
+      <c r="F43">
         <v>62.72727272727273</v>
       </c>
-      <c r="F43">
-        <v>110</v>
-      </c>
       <c r="G43">
         <v>100</v>
       </c>
       <c r="H43">
-        <v>141.2297297297297</v>
+        <v>41.7972972972973</v>
       </c>
       <c r="I43">
-        <v>41.7972972972973</v>
+        <v>99.43243243243244</v>
       </c>
       <c r="J43">
-        <v>99.43243243243244</v>
+        <v>141.2297297297297</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -1795,28 +1795,28 @@
         <v>30</v>
       </c>
       <c r="C44">
+        <v>69</v>
+      </c>
+      <c r="D44">
+        <v>99</v>
+      </c>
+      <c r="E44">
         <v>30.3030303030303</v>
       </c>
-      <c r="D44">
-        <v>69</v>
-      </c>
-      <c r="E44">
+      <c r="F44">
         <v>69.6969696969697</v>
       </c>
-      <c r="F44">
-        <v>99</v>
-      </c>
       <c r="G44">
         <v>100</v>
       </c>
       <c r="H44">
-        <v>141.2297297297297</v>
+        <v>41.7972972972973</v>
       </c>
       <c r="I44">
-        <v>41.7972972972973</v>
+        <v>99.43243243243244</v>
       </c>
       <c r="J44">
-        <v>99.43243243243244</v>
+        <v>141.2297297297297</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -1827,28 +1827,28 @@
         <v>35</v>
       </c>
       <c r="C45">
+        <v>82</v>
+      </c>
+      <c r="D45">
+        <v>117</v>
+      </c>
+      <c r="E45">
         <v>29.91452991452991</v>
       </c>
-      <c r="D45">
-        <v>82</v>
-      </c>
-      <c r="E45">
+      <c r="F45">
         <v>70.08547008547008</v>
       </c>
-      <c r="F45">
-        <v>117</v>
-      </c>
       <c r="G45">
         <v>100</v>
       </c>
       <c r="H45">
-        <v>141.2297297297297</v>
+        <v>41.7972972972973</v>
       </c>
       <c r="I45">
-        <v>41.7972972972973</v>
+        <v>99.43243243243244</v>
       </c>
       <c r="J45">
-        <v>99.43243243243244</v>
+        <v>141.2297297297297</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -1859,28 +1859,28 @@
         <v>32</v>
       </c>
       <c r="C46">
+        <v>97</v>
+      </c>
+      <c r="D46">
+        <v>129</v>
+      </c>
+      <c r="E46">
         <v>24.8062015503876</v>
       </c>
-      <c r="D46">
-        <v>97</v>
-      </c>
-      <c r="E46">
+      <c r="F46">
         <v>75.1937984496124</v>
       </c>
-      <c r="F46">
-        <v>129</v>
-      </c>
       <c r="G46">
         <v>100</v>
       </c>
       <c r="H46">
-        <v>141.2297297297297</v>
+        <v>41.7972972972973</v>
       </c>
       <c r="I46">
-        <v>41.7972972972973</v>
+        <v>99.43243243243244</v>
       </c>
       <c r="J46">
-        <v>99.43243243243244</v>
+        <v>141.2297297297297</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -1891,28 +1891,28 @@
         <v>47</v>
       </c>
       <c r="C47">
+        <v>118</v>
+      </c>
+      <c r="D47">
+        <v>165</v>
+      </c>
+      <c r="E47">
         <v>28.48484848484848</v>
       </c>
-      <c r="D47">
-        <v>118</v>
-      </c>
-      <c r="E47">
+      <c r="F47">
         <v>71.51515151515152</v>
       </c>
-      <c r="F47">
-        <v>165</v>
-      </c>
       <c r="G47">
         <v>100</v>
       </c>
       <c r="H47">
-        <v>141.2297297297297</v>
+        <v>41.7972972972973</v>
       </c>
       <c r="I47">
-        <v>41.7972972972973</v>
+        <v>99.43243243243244</v>
       </c>
       <c r="J47">
-        <v>99.43243243243244</v>
+        <v>141.2297297297297</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -1923,28 +1923,28 @@
         <v>45</v>
       </c>
       <c r="C48">
+        <v>149</v>
+      </c>
+      <c r="D48">
+        <v>194</v>
+      </c>
+      <c r="E48">
         <v>23.19587628865979</v>
       </c>
-      <c r="D48">
-        <v>149</v>
-      </c>
-      <c r="E48">
+      <c r="F48">
         <v>76.80412371134021</v>
       </c>
-      <c r="F48">
-        <v>194</v>
-      </c>
       <c r="G48">
         <v>100</v>
       </c>
       <c r="H48">
-        <v>141.2297297297297</v>
+        <v>41.7972972972973</v>
       </c>
       <c r="I48">
-        <v>41.7972972972973</v>
+        <v>99.43243243243244</v>
       </c>
       <c r="J48">
-        <v>99.43243243243244</v>
+        <v>141.2297297297297</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -1955,28 +1955,28 @@
         <v>57</v>
       </c>
       <c r="C49">
+        <v>117</v>
+      </c>
+      <c r="D49">
+        <v>174</v>
+      </c>
+      <c r="E49">
         <v>32.75862068965517</v>
       </c>
-      <c r="D49">
-        <v>117</v>
-      </c>
-      <c r="E49">
+      <c r="F49">
         <v>67.24137931034483</v>
       </c>
-      <c r="F49">
-        <v>174</v>
-      </c>
       <c r="G49">
         <v>100</v>
       </c>
       <c r="H49">
-        <v>141.2297297297297</v>
+        <v>41.7972972972973</v>
       </c>
       <c r="I49">
-        <v>41.7972972972973</v>
+        <v>99.43243243243244</v>
       </c>
       <c r="J49">
-        <v>99.43243243243244</v>
+        <v>141.2297297297297</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -1987,28 +1987,28 @@
         <v>45</v>
       </c>
       <c r="C50">
+        <v>98</v>
+      </c>
+      <c r="D50">
+        <v>143</v>
+      </c>
+      <c r="E50">
         <v>31.46853146853147</v>
       </c>
-      <c r="D50">
-        <v>98</v>
-      </c>
-      <c r="E50">
+      <c r="F50">
         <v>68.53146853146853</v>
       </c>
-      <c r="F50">
-        <v>143</v>
-      </c>
       <c r="G50">
         <v>100</v>
       </c>
       <c r="H50">
-        <v>141.2297297297297</v>
+        <v>41.7972972972973</v>
       </c>
       <c r="I50">
-        <v>41.7972972972973</v>
+        <v>99.43243243243244</v>
       </c>
       <c r="J50">
-        <v>99.43243243243244</v>
+        <v>141.2297297297297</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -2019,28 +2019,28 @@
         <v>41</v>
       </c>
       <c r="C51">
+        <v>105</v>
+      </c>
+      <c r="D51">
+        <v>146</v>
+      </c>
+      <c r="E51">
         <v>28.08219178082192</v>
       </c>
-      <c r="D51">
-        <v>105</v>
-      </c>
-      <c r="E51">
+      <c r="F51">
         <v>71.91780821917808</v>
       </c>
-      <c r="F51">
-        <v>146</v>
-      </c>
       <c r="G51">
         <v>100</v>
       </c>
       <c r="H51">
-        <v>141.2297297297297</v>
+        <v>41.7972972972973</v>
       </c>
       <c r="I51">
-        <v>41.7972972972973</v>
+        <v>99.43243243243244</v>
       </c>
       <c r="J51">
-        <v>99.43243243243244</v>
+        <v>141.2297297297297</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2051,28 +2051,28 @@
         <v>49</v>
       </c>
       <c r="C52">
+        <v>93</v>
+      </c>
+      <c r="D52">
+        <v>142</v>
+      </c>
+      <c r="E52">
         <v>34.50704225352113</v>
       </c>
-      <c r="D52">
-        <v>93</v>
-      </c>
-      <c r="E52">
+      <c r="F52">
         <v>65.49295774647888</v>
       </c>
-      <c r="F52">
-        <v>142</v>
-      </c>
       <c r="G52">
         <v>100</v>
       </c>
       <c r="H52">
-        <v>141.2297297297297</v>
+        <v>41.7972972972973</v>
       </c>
       <c r="I52">
-        <v>41.7972972972973</v>
+        <v>99.43243243243244</v>
       </c>
       <c r="J52">
-        <v>99.43243243243244</v>
+        <v>141.2297297297297</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2083,28 +2083,28 @@
         <v>62</v>
       </c>
       <c r="C53">
+        <v>90</v>
+      </c>
+      <c r="D53">
+        <v>152</v>
+      </c>
+      <c r="E53">
         <v>40.78947368421053</v>
       </c>
-      <c r="D53">
-        <v>90</v>
-      </c>
-      <c r="E53">
+      <c r="F53">
         <v>59.21052631578947</v>
       </c>
-      <c r="F53">
-        <v>152</v>
-      </c>
       <c r="G53">
         <v>100</v>
       </c>
       <c r="H53">
-        <v>141.2297297297297</v>
+        <v>41.7972972972973</v>
       </c>
       <c r="I53">
-        <v>41.7972972972973</v>
+        <v>99.43243243243244</v>
       </c>
       <c r="J53">
-        <v>99.43243243243244</v>
+        <v>141.2297297297297</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2115,28 +2115,28 @@
         <v>81</v>
       </c>
       <c r="C54">
+        <v>69</v>
+      </c>
+      <c r="D54">
+        <v>150</v>
+      </c>
+      <c r="E54">
         <v>54</v>
       </c>
-      <c r="D54">
-        <v>69</v>
-      </c>
-      <c r="E54">
+      <c r="F54">
         <v>46</v>
       </c>
-      <c r="F54">
-        <v>150</v>
-      </c>
       <c r="G54">
         <v>100</v>
       </c>
       <c r="H54">
-        <v>141.2297297297297</v>
+        <v>41.7972972972973</v>
       </c>
       <c r="I54">
-        <v>41.7972972972973</v>
+        <v>99.43243243243244</v>
       </c>
       <c r="J54">
-        <v>99.43243243243244</v>
+        <v>141.2297297297297</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2147,28 +2147,28 @@
         <v>77</v>
       </c>
       <c r="C55">
+        <v>65</v>
+      </c>
+      <c r="D55">
+        <v>142</v>
+      </c>
+      <c r="E55">
         <v>54.22535211267606</v>
       </c>
-      <c r="D55">
-        <v>65</v>
-      </c>
-      <c r="E55">
+      <c r="F55">
         <v>45.77464788732394</v>
       </c>
-      <c r="F55">
-        <v>142</v>
-      </c>
       <c r="G55">
         <v>100</v>
       </c>
       <c r="H55">
-        <v>141.2297297297297</v>
+        <v>41.7972972972973</v>
       </c>
       <c r="I55">
-        <v>41.7972972972973</v>
+        <v>99.43243243243244</v>
       </c>
       <c r="J55">
-        <v>99.43243243243244</v>
+        <v>141.2297297297297</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2179,28 +2179,28 @@
         <v>75</v>
       </c>
       <c r="C56">
+        <v>84</v>
+      </c>
+      <c r="D56">
+        <v>159</v>
+      </c>
+      <c r="E56">
         <v>47.16981132075472</v>
       </c>
-      <c r="D56">
-        <v>84</v>
-      </c>
-      <c r="E56">
+      <c r="F56">
         <v>52.83018867924528</v>
       </c>
-      <c r="F56">
-        <v>159</v>
-      </c>
       <c r="G56">
         <v>100</v>
       </c>
       <c r="H56">
-        <v>141.2297297297297</v>
+        <v>41.7972972972973</v>
       </c>
       <c r="I56">
-        <v>41.7972972972973</v>
+        <v>99.43243243243244</v>
       </c>
       <c r="J56">
-        <v>99.43243243243244</v>
+        <v>141.2297297297297</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -2211,28 +2211,28 @@
         <v>81</v>
       </c>
       <c r="C57">
+        <v>78</v>
+      </c>
+      <c r="D57">
+        <v>159</v>
+      </c>
+      <c r="E57">
         <v>50.9433962264151</v>
       </c>
-      <c r="D57">
-        <v>78</v>
-      </c>
-      <c r="E57">
+      <c r="F57">
         <v>49.0566037735849</v>
       </c>
-      <c r="F57">
-        <v>159</v>
-      </c>
       <c r="G57">
         <v>100</v>
       </c>
       <c r="H57">
-        <v>141.2297297297297</v>
+        <v>41.7972972972973</v>
       </c>
       <c r="I57">
-        <v>41.7972972972973</v>
+        <v>99.43243243243244</v>
       </c>
       <c r="J57">
-        <v>99.43243243243244</v>
+        <v>141.2297297297297</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -2243,28 +2243,28 @@
         <v>77</v>
       </c>
       <c r="C58">
+        <v>113</v>
+      </c>
+      <c r="D58">
+        <v>190</v>
+      </c>
+      <c r="E58">
         <v>40.52631578947368</v>
       </c>
-      <c r="D58">
-        <v>113</v>
-      </c>
-      <c r="E58">
+      <c r="F58">
         <v>59.47368421052632</v>
       </c>
-      <c r="F58">
-        <v>190</v>
-      </c>
       <c r="G58">
         <v>100</v>
       </c>
       <c r="H58">
-        <v>141.2297297297297</v>
+        <v>41.7972972972973</v>
       </c>
       <c r="I58">
-        <v>41.7972972972973</v>
+        <v>99.43243243243244</v>
       </c>
       <c r="J58">
-        <v>99.43243243243244</v>
+        <v>141.2297297297297</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -2275,28 +2275,28 @@
         <v>59</v>
       </c>
       <c r="C59">
+        <v>132</v>
+      </c>
+      <c r="D59">
+        <v>191</v>
+      </c>
+      <c r="E59">
         <v>30.89005235602094</v>
       </c>
-      <c r="D59">
-        <v>132</v>
-      </c>
-      <c r="E59">
+      <c r="F59">
         <v>69.10994764397905</v>
       </c>
-      <c r="F59">
-        <v>191</v>
-      </c>
       <c r="G59">
         <v>100</v>
       </c>
       <c r="H59">
-        <v>141.2297297297297</v>
+        <v>41.7972972972973</v>
       </c>
       <c r="I59">
-        <v>41.7972972972973</v>
+        <v>99.43243243243244</v>
       </c>
       <c r="J59">
-        <v>99.43243243243244</v>
+        <v>141.2297297297297</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -2307,28 +2307,28 @@
         <v>44</v>
       </c>
       <c r="C60">
+        <v>104</v>
+      </c>
+      <c r="D60">
+        <v>148</v>
+      </c>
+      <c r="E60">
         <v>29.72972972972973</v>
       </c>
-      <c r="D60">
-        <v>104</v>
-      </c>
-      <c r="E60">
+      <c r="F60">
         <v>70.27027027027027</v>
       </c>
-      <c r="F60">
-        <v>148</v>
-      </c>
       <c r="G60">
         <v>100</v>
       </c>
       <c r="H60">
-        <v>141.2297297297297</v>
+        <v>41.7972972972973</v>
       </c>
       <c r="I60">
-        <v>41.7972972972973</v>
+        <v>99.43243243243244</v>
       </c>
       <c r="J60">
-        <v>99.43243243243244</v>
+        <v>141.2297297297297</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -2339,28 +2339,28 @@
         <v>55</v>
       </c>
       <c r="C61">
+        <v>121</v>
+      </c>
+      <c r="D61">
+        <v>176</v>
+      </c>
+      <c r="E61">
         <v>31.25</v>
       </c>
-      <c r="D61">
-        <v>121</v>
-      </c>
-      <c r="E61">
+      <c r="F61">
         <v>68.75</v>
       </c>
-      <c r="F61">
-        <v>176</v>
-      </c>
       <c r="G61">
         <v>100</v>
       </c>
       <c r="H61">
-        <v>141.2297297297297</v>
+        <v>41.7972972972973</v>
       </c>
       <c r="I61">
-        <v>41.7972972972973</v>
+        <v>99.43243243243244</v>
       </c>
       <c r="J61">
-        <v>99.43243243243244</v>
+        <v>141.2297297297297</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -2371,28 +2371,28 @@
         <v>47</v>
       </c>
       <c r="C62">
+        <v>125</v>
+      </c>
+      <c r="D62">
+        <v>172</v>
+      </c>
+      <c r="E62">
         <v>27.32558139534883</v>
       </c>
-      <c r="D62">
-        <v>125</v>
-      </c>
-      <c r="E62">
+      <c r="F62">
         <v>72.67441860465115</v>
       </c>
-      <c r="F62">
-        <v>172</v>
-      </c>
       <c r="G62">
         <v>100</v>
       </c>
       <c r="H62">
-        <v>141.2297297297297</v>
+        <v>41.7972972972973</v>
       </c>
       <c r="I62">
-        <v>41.7972972972973</v>
+        <v>99.43243243243244</v>
       </c>
       <c r="J62">
-        <v>99.43243243243244</v>
+        <v>141.2297297297297</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -2403,28 +2403,28 @@
         <v>47</v>
       </c>
       <c r="C63">
+        <v>122</v>
+      </c>
+      <c r="D63">
+        <v>169</v>
+      </c>
+      <c r="E63">
         <v>27.81065088757396</v>
       </c>
-      <c r="D63">
-        <v>122</v>
-      </c>
-      <c r="E63">
+      <c r="F63">
         <v>72.18934911242604</v>
       </c>
-      <c r="F63">
-        <v>169</v>
-      </c>
       <c r="G63">
         <v>100</v>
       </c>
       <c r="H63">
-        <v>141.2297297297297</v>
+        <v>41.7972972972973</v>
       </c>
       <c r="I63">
-        <v>41.7972972972973</v>
+        <v>99.43243243243244</v>
       </c>
       <c r="J63">
-        <v>99.43243243243244</v>
+        <v>141.2297297297297</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -2435,28 +2435,28 @@
         <v>37</v>
       </c>
       <c r="C64">
+        <v>154</v>
+      </c>
+      <c r="D64">
+        <v>191</v>
+      </c>
+      <c r="E64">
         <v>19.3717277486911</v>
       </c>
-      <c r="D64">
-        <v>154</v>
-      </c>
-      <c r="E64">
+      <c r="F64">
         <v>80.6282722513089</v>
       </c>
-      <c r="F64">
-        <v>191</v>
-      </c>
       <c r="G64">
         <v>100</v>
       </c>
       <c r="H64">
-        <v>141.2297297297297</v>
+        <v>41.7972972972973</v>
       </c>
       <c r="I64">
-        <v>41.7972972972973</v>
+        <v>99.43243243243244</v>
       </c>
       <c r="J64">
-        <v>99.43243243243244</v>
+        <v>141.2297297297297</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -2467,28 +2467,28 @@
         <v>36</v>
       </c>
       <c r="C65">
+        <v>127</v>
+      </c>
+      <c r="D65">
+        <v>163</v>
+      </c>
+      <c r="E65">
         <v>22.08588957055215</v>
       </c>
-      <c r="D65">
-        <v>127</v>
-      </c>
-      <c r="E65">
+      <c r="F65">
         <v>77.91411042944786</v>
       </c>
-      <c r="F65">
-        <v>163</v>
-      </c>
       <c r="G65">
         <v>100</v>
       </c>
       <c r="H65">
-        <v>141.2297297297297</v>
+        <v>41.7972972972973</v>
       </c>
       <c r="I65">
-        <v>41.7972972972973</v>
+        <v>99.43243243243244</v>
       </c>
       <c r="J65">
-        <v>99.43243243243244</v>
+        <v>141.2297297297297</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -2499,28 +2499,28 @@
         <v>22</v>
       </c>
       <c r="C66">
+        <v>107</v>
+      </c>
+      <c r="D66">
+        <v>129</v>
+      </c>
+      <c r="E66">
         <v>17.05426356589147</v>
       </c>
-      <c r="D66">
-        <v>107</v>
-      </c>
-      <c r="E66">
+      <c r="F66">
         <v>82.94573643410853</v>
       </c>
-      <c r="F66">
-        <v>129</v>
-      </c>
       <c r="G66">
         <v>100</v>
       </c>
       <c r="H66">
-        <v>141.2297297297297</v>
+        <v>41.7972972972973</v>
       </c>
       <c r="I66">
-        <v>41.7972972972973</v>
+        <v>99.43243243243244</v>
       </c>
       <c r="J66">
-        <v>99.43243243243244</v>
+        <v>141.2297297297297</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -2531,28 +2531,28 @@
         <v>36</v>
       </c>
       <c r="C67">
+        <v>122</v>
+      </c>
+      <c r="D67">
+        <v>158</v>
+      </c>
+      <c r="E67">
         <v>22.78481012658228</v>
       </c>
-      <c r="D67">
-        <v>122</v>
-      </c>
-      <c r="E67">
+      <c r="F67">
         <v>77.21518987341773</v>
       </c>
-      <c r="F67">
-        <v>158</v>
-      </c>
       <c r="G67">
         <v>100</v>
       </c>
       <c r="H67">
-        <v>141.2297297297297</v>
+        <v>41.7972972972973</v>
       </c>
       <c r="I67">
-        <v>41.7972972972973</v>
+        <v>99.43243243243244</v>
       </c>
       <c r="J67">
-        <v>99.43243243243244</v>
+        <v>141.2297297297297</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -2563,28 +2563,28 @@
         <v>18</v>
       </c>
       <c r="C68">
+        <v>99</v>
+      </c>
+      <c r="D68">
+        <v>117</v>
+      </c>
+      <c r="E68">
         <v>15.38461538461539</v>
       </c>
-      <c r="D68">
-        <v>99</v>
-      </c>
-      <c r="E68">
+      <c r="F68">
         <v>84.61538461538461</v>
       </c>
-      <c r="F68">
-        <v>117</v>
-      </c>
       <c r="G68">
         <v>100</v>
       </c>
       <c r="H68">
-        <v>141.2297297297297</v>
+        <v>41.7972972972973</v>
       </c>
       <c r="I68">
-        <v>41.7972972972973</v>
+        <v>99.43243243243244</v>
       </c>
       <c r="J68">
-        <v>99.43243243243244</v>
+        <v>141.2297297297297</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -2595,28 +2595,28 @@
         <v>34</v>
       </c>
       <c r="C69">
+        <v>139</v>
+      </c>
+      <c r="D69">
+        <v>173</v>
+      </c>
+      <c r="E69">
         <v>19.65317919075144</v>
       </c>
-      <c r="D69">
-        <v>139</v>
-      </c>
-      <c r="E69">
+      <c r="F69">
         <v>80.34682080924856</v>
       </c>
-      <c r="F69">
-        <v>173</v>
-      </c>
       <c r="G69">
         <v>100</v>
       </c>
       <c r="H69">
-        <v>141.2297297297297</v>
+        <v>41.7972972972973</v>
       </c>
       <c r="I69">
-        <v>41.7972972972973</v>
+        <v>99.43243243243244</v>
       </c>
       <c r="J69">
-        <v>99.43243243243244</v>
+        <v>141.2297297297297</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -2627,28 +2627,28 @@
         <v>31</v>
       </c>
       <c r="C70">
+        <v>139</v>
+      </c>
+      <c r="D70">
+        <v>170</v>
+      </c>
+      <c r="E70">
         <v>18.23529411764706</v>
       </c>
-      <c r="D70">
-        <v>139</v>
-      </c>
-      <c r="E70">
+      <c r="F70">
         <v>81.76470588235294</v>
       </c>
-      <c r="F70">
-        <v>170</v>
-      </c>
       <c r="G70">
         <v>100</v>
       </c>
       <c r="H70">
-        <v>141.2297297297297</v>
+        <v>41.7972972972973</v>
       </c>
       <c r="I70">
-        <v>41.7972972972973</v>
+        <v>99.43243243243244</v>
       </c>
       <c r="J70">
-        <v>99.43243243243244</v>
+        <v>141.2297297297297</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -2659,28 +2659,28 @@
         <v>24</v>
       </c>
       <c r="C71">
+        <v>135</v>
+      </c>
+      <c r="D71">
+        <v>159</v>
+      </c>
+      <c r="E71">
         <v>15.09433962264151</v>
       </c>
-      <c r="D71">
-        <v>135</v>
-      </c>
-      <c r="E71">
+      <c r="F71">
         <v>84.90566037735849</v>
       </c>
-      <c r="F71">
-        <v>159</v>
-      </c>
       <c r="G71">
         <v>100</v>
       </c>
       <c r="H71">
-        <v>141.2297297297297</v>
+        <v>41.7972972972973</v>
       </c>
       <c r="I71">
-        <v>41.7972972972973</v>
+        <v>99.43243243243244</v>
       </c>
       <c r="J71">
-        <v>99.43243243243244</v>
+        <v>141.2297297297297</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -2691,28 +2691,28 @@
         <v>41</v>
       </c>
       <c r="C72">
+        <v>135</v>
+      </c>
+      <c r="D72">
+        <v>176</v>
+      </c>
+      <c r="E72">
         <v>23.29545454545454</v>
       </c>
-      <c r="D72">
-        <v>135</v>
-      </c>
-      <c r="E72">
+      <c r="F72">
         <v>76.70454545454545</v>
       </c>
-      <c r="F72">
-        <v>176</v>
-      </c>
       <c r="G72">
         <v>100</v>
       </c>
       <c r="H72">
-        <v>141.2297297297297</v>
+        <v>41.7972972972973</v>
       </c>
       <c r="I72">
-        <v>41.7972972972973</v>
+        <v>99.43243243243244</v>
       </c>
       <c r="J72">
-        <v>99.43243243243244</v>
+        <v>141.2297297297297</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -2723,28 +2723,28 @@
         <v>55</v>
       </c>
       <c r="C73">
+        <v>108</v>
+      </c>
+      <c r="D73">
+        <v>163</v>
+      </c>
+      <c r="E73">
         <v>33.74233128834356</v>
       </c>
-      <c r="D73">
-        <v>108</v>
-      </c>
-      <c r="E73">
+      <c r="F73">
         <v>66.25766871165644</v>
       </c>
-      <c r="F73">
-        <v>163</v>
-      </c>
       <c r="G73">
         <v>100</v>
       </c>
       <c r="H73">
-        <v>141.2297297297297</v>
+        <v>41.7972972972973</v>
       </c>
       <c r="I73">
-        <v>41.7972972972973</v>
+        <v>99.43243243243244</v>
       </c>
       <c r="J73">
-        <v>99.43243243243244</v>
+        <v>141.2297297297297</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -2755,28 +2755,28 @@
         <v>61</v>
       </c>
       <c r="C74">
+        <v>93</v>
+      </c>
+      <c r="D74">
+        <v>154</v>
+      </c>
+      <c r="E74">
         <v>39.61038961038961</v>
       </c>
-      <c r="D74">
-        <v>93</v>
-      </c>
-      <c r="E74">
+      <c r="F74">
         <v>60.3896103896104</v>
       </c>
-      <c r="F74">
-        <v>154</v>
-      </c>
       <c r="G74">
         <v>100</v>
       </c>
       <c r="H74">
-        <v>141.2297297297297</v>
+        <v>41.7972972972973</v>
       </c>
       <c r="I74">
-        <v>41.7972972972973</v>
+        <v>99.43243243243244</v>
       </c>
       <c r="J74">
-        <v>99.43243243243244</v>
+        <v>141.2297297297297</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -2787,28 +2787,28 @@
         <v>6</v>
       </c>
       <c r="C75">
+        <v>16</v>
+      </c>
+      <c r="D75">
+        <v>22</v>
+      </c>
+      <c r="E75">
         <v>27.27272727272727</v>
       </c>
-      <c r="D75">
-        <v>16</v>
-      </c>
-      <c r="E75">
+      <c r="F75">
         <v>72.72727272727273</v>
       </c>
-      <c r="F75">
-        <v>22</v>
-      </c>
       <c r="G75">
         <v>100</v>
       </c>
       <c r="H75">
-        <v>141.2297297297297</v>
+        <v>41.7972972972973</v>
       </c>
       <c r="I75">
-        <v>41.7972972972973</v>
+        <v>99.43243243243244</v>
       </c>
       <c r="J75">
-        <v>99.43243243243244</v>
+        <v>141.2297297297297</v>
       </c>
     </row>
   </sheetData>
